--- a/dtpu_configurations/only_integer16/80mhz/mxu_7x7/timing.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_7x7/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>2.0849242210388184</v>
+        <v>0.7978915572166443</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.03396383300423622</v>
+        <v>0.028345104306936264</v>
       </c>
     </row>
   </sheetData>
